--- a/OrangeHRM/TestInput/InputSheet.xlsx
+++ b/OrangeHRM/TestInput/InputSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -51,6 +51,9 @@
     <t xml:space="preserve">EmployeeLogin</t>
   </si>
   <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
@@ -81,54 +84,99 @@
     <t xml:space="preserve">openApplication</t>
   </si>
   <si>
+    <t xml:space="preserve">Wait For Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waitForElement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">txtUsername</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter UserName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typeAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">txtPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter PassWord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clickAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clickLogout</t>
+  </si>
+  <si>
     <t xml:space="preserve">Title Validation</t>
   </si>
   <si>
     <t xml:space="preserve">titleValidation</t>
   </si>
   <si>
-    <t xml:space="preserve">Wait For Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waitForElement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id </t>
+    <t xml:space="preserve">OrangeHRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CloseBrowser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closeApplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primus BANK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait For Element </t>
+  </si>
+  <si>
+    <t xml:space="preserve">drlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ameerpet</t>
   </si>
   <si>
     <t xml:space="preserve">txtuid</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter UserName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typeAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
     <t xml:space="preserve">txtuId</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin</t>
+    <t xml:space="preserve">Kaibalya</t>
   </si>
   <si>
     <t xml:space="preserve">txtPword</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter PassWord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clickAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
     <t xml:space="preserve">login</t>
   </si>
   <si>
@@ -136,36 +184,6 @@
   </si>
   <si>
     <t xml:space="preserve">xpath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//*[@id='Table_02']/tbody/tr/td[3]/a/img</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CloseBrowser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closeApplication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primus BANK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait For Element </t>
-  </si>
-  <si>
-    <t xml:space="preserve">drlist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selectAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ameerpet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaibalya</t>
   </si>
   <si>
     <t xml:space="preserve">//*[@id='Table_01']/tbody/tr/td[3]/a/img</t>
@@ -283,7 +301,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -326,7 +344,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -345,10 +363,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -362,19 +380,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -382,183 +400,172 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>10</v>
+      <c r="E5" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>29</v>
+      <c r="E6" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -594,19 +601,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -614,50 +621,50 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>41</v>
@@ -668,10 +675,10 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>43</v>
@@ -688,7 +695,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
@@ -699,16 +706,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>10</v>
@@ -716,33 +723,33 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>10</v>
@@ -750,50 +757,50 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="0" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" s="0" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>41</v>
@@ -801,19 +808,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,13 +831,13 @@
         <v>40</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/OrangeHRM/TestInput/InputSheet.xlsx
+++ b/OrangeHRM/TestInput/InputSheet.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
     <sheet name="AdminLogin" sheetId="2" r:id="rId2"/>
-    <sheet name="EmployeeLogin" sheetId="3" r:id="rId3"/>
+    <sheet name="UserManagement" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="62">
   <si>
     <t>TCID</t>
   </si>
@@ -55,145 +55,166 @@
     <t>TC002</t>
   </si>
   <si>
-    <t>EmployeeLogin</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Object_Type</t>
+  </si>
+  <si>
+    <t>Locator_Type</t>
+  </si>
+  <si>
+    <t>Locator_Value</t>
+  </si>
+  <si>
+    <t>Test_Data</t>
+  </si>
+  <si>
+    <t>Start Browser</t>
+  </si>
+  <si>
+    <t>startBrowser</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Open Application</t>
+  </si>
+  <si>
+    <t>openApplication</t>
+  </si>
+  <si>
+    <t>Wait For Element</t>
+  </si>
+  <si>
+    <t>waitForElement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t>txtUsername</t>
+  </si>
+  <si>
+    <t>Enter UserName</t>
+  </si>
+  <si>
+    <t>typeAction</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>txtPassword</t>
+  </si>
+  <si>
+    <t>Enter PassWord</t>
+  </si>
+  <si>
+    <t>Click Login</t>
+  </si>
+  <si>
+    <t>clickAction</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Click Logout</t>
+  </si>
+  <si>
+    <t>Title Validation</t>
+  </si>
+  <si>
+    <t>titleValidation</t>
+  </si>
+  <si>
+    <t>OrangeHRM</t>
+  </si>
+  <si>
+    <t>CloseBrowser</t>
+  </si>
+  <si>
+    <t>closeApplication</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>UserManagement</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/ul/li[1]/a/b</t>
+  </si>
+  <si>
+    <t>Click Admin</t>
+  </si>
+  <si>
+    <t>Click Add Button</t>
+  </si>
+  <si>
+    <t>btnAdd</t>
+  </si>
+  <si>
+    <t>Select UserRole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectAction </t>
+  </si>
+  <si>
+    <t>systemUser_userType</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>Enter Emp Name</t>
+  </si>
+  <si>
+    <t>systemUser_employeeName_empName</t>
+  </si>
+  <si>
+    <t>systemUser_userName</t>
+  </si>
+  <si>
+    <t>Enter Uname</t>
+  </si>
+  <si>
+    <t>Richards123</t>
+  </si>
+  <si>
+    <t>Enter Pword</t>
+  </si>
+  <si>
+    <t>systemUser_password</t>
+  </si>
+  <si>
+    <t>systemUser_confirmPassword</t>
+  </si>
+  <si>
+    <t>Enter CPWord</t>
+  </si>
+  <si>
+    <t>Click Save</t>
+  </si>
+  <si>
+    <t>btnSave</t>
+  </si>
+  <si>
+    <t>Richards demo</t>
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Object_Type</t>
-  </si>
-  <si>
-    <t>Locator_Type</t>
-  </si>
-  <si>
-    <t>Locator_Value</t>
-  </si>
-  <si>
-    <t>Test_Data</t>
-  </si>
-  <si>
-    <t>Start Browser</t>
-  </si>
-  <si>
-    <t>startBrowser</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Open Application</t>
-  </si>
-  <si>
-    <t>openApplication</t>
-  </si>
-  <si>
-    <t>Wait For Element</t>
-  </si>
-  <si>
-    <t>waitForElement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id </t>
-  </si>
-  <si>
-    <t>txtUsername</t>
-  </si>
-  <si>
-    <t>Enter UserName</t>
-  </si>
-  <si>
-    <t>typeAction</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>txtPassword</t>
-  </si>
-  <si>
-    <t>Enter PassWord</t>
-  </si>
-  <si>
-    <t>Click Login</t>
-  </si>
-  <si>
-    <t>clickAction</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>Click Logout</t>
-  </si>
-  <si>
-    <t>Title Validation</t>
-  </si>
-  <si>
-    <t>titleValidation</t>
-  </si>
-  <si>
-    <t>OrangeHRM</t>
-  </si>
-  <si>
-    <t>CloseBrowser</t>
-  </si>
-  <si>
-    <t>closeApplication</t>
-  </si>
-  <si>
-    <t>Primus BANK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wait For Element </t>
-  </si>
-  <si>
-    <t>drlist</t>
-  </si>
-  <si>
-    <t>Select Branch</t>
-  </si>
-  <si>
-    <t>selectAction</t>
-  </si>
-  <si>
-    <t>Ameerpet</t>
-  </si>
-  <si>
-    <t>txtuid</t>
-  </si>
-  <si>
-    <t>txtuId</t>
-  </si>
-  <si>
-    <t>Kaibalya</t>
-  </si>
-  <si>
-    <t>txtPword</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>CloseApplication</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>//*[@id='Table_01']/tbody/tr/td[3]/a/img</t>
-  </si>
-  <si>
-    <t>logout</t>
   </si>
 </sst>
 </file>
@@ -518,11 +539,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -554,10 +578,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -572,10 +596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="151" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -589,19 +613,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -609,172 +633,189 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
+      <c r="E6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
+      <c r="E7">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -789,29 +830,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -819,67 +867,67 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -887,67 +935,67 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -955,87 +1003,155 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
